--- a/scrap_di_futuro/curvadi_1902.xlsx
+++ b/scrap_di_futuro/curvadi_1902.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabrielMariano\Documents\Projetos\3.18kg\scrap_di_futuro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58FBC45-8F04-41DA-843D-C6073EC25944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8036D5E1-5869-4811-8A3A-707D8C475B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1770" windowWidth="29040" windowHeight="15720" xr2:uid="{7F5311F9-5E64-4258-BA24-6D93180628C0}"/>
   </bookViews>
@@ -513,13 +513,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511055ED-1991-4D32-9B04-AF337E57A857}">
   <dimension ref="A1:C250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
